--- a/MedicalDecisionDiabetes/MDDMparameters.xlsx
+++ b/MedicalDecisionDiabetes/MDDMparameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jnascime/Dropbox/PythonProjects/ORF411/github_private/seqdecisionlib_Diabetes/MedicalDecisionDiabetes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\root\code_repo\optimization\MedicalDecisionDiabetes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8596F3-EF90-944E-84B4-4D7C06420598}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04011924-350B-41F1-BAED-FA00878D909A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28100" yWindow="460" windowWidth="23040" windowHeight="10160" activeTab="2" xr2:uid="{0DB32CC8-A0F8-4A1F-8469-0451A56A93A9}"/>
+    <workbookView xWindow="50" yWindow="2590" windowWidth="14070" windowHeight="11170" activeTab="2" xr2:uid="{0DB32CC8-A0F8-4A1F-8469-0451A56A93A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="4" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>prior_mult_b</t>
   </si>
   <si>
-    <t>fixed_uniform</t>
-  </si>
-  <si>
     <t>mu_prior_0</t>
   </si>
   <si>
@@ -130,7 +127,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -140,7 +137,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -151,7 +148,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -161,7 +158,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -172,7 +169,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -182,7 +179,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -198,7 +195,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -208,7 +205,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -219,7 +216,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -229,7 +226,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -240,7 +237,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -250,7 +247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -266,7 +263,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -276,7 +273,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -287,7 +284,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -297,7 +294,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -313,7 +310,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -323,7 +320,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -334,7 +331,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -344,7 +341,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -360,7 +357,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -370,7 +367,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -381,7 +378,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -391,7 +388,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -407,7 +404,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -417,7 +414,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -428,7 +425,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -438,23 +435,27 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> that you might select in sheet "parameters2"</t>
     </r>
+  </si>
+  <si>
+    <t>prior_uniform</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -462,8 +463,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -497,7 +505,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -513,9 +521,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -553,7 +561,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -659,7 +667,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -801,7 +809,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -811,26 +819,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC70B3A-BEBA-564B-A9E3-005424252FEF}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="69.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="34" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="85" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -839,11 +848,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36399D37-6991-4440-A8AB-A82CE9D5485E}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
@@ -857,7 +866,7 @@
     <col min="14" max="14" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>16</v>
       </c>
@@ -886,16 +895,16 @@
         <v>23</v>
       </c>
       <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="68" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -909,7 +918,7 @@
         <v>0.25</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F2">
         <v>0.3</v>
@@ -933,10 +942,10 @@
         <v>0.12</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="34" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -944,13 +953,13 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C3">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="D3">
         <v>0.3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F3">
         <v>0.3</v>
@@ -974,10 +983,10 @@
         <v>0.19</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -991,7 +1000,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F4">
         <v>0.3</v>
@@ -1015,10 +1024,10 @@
         <v>0.17</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="34" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1032,7 +1041,7 @@
         <v>0.34</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F5">
         <v>0.3</v>
@@ -1056,10 +1065,10 @@
         <v>0.15</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1067,13 +1076,13 @@
         <v>0.21</v>
       </c>
       <c r="C6">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="D6">
         <v>0.24</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F6">
         <v>0.3</v>
@@ -1098,6 +1107,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1106,33 +1116,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4453F3F-717F-4132-8180-150D526F4A71}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="146" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1140,15 +1150,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1156,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1167,7 +1177,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1175,18 +1185,18 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1198,6 +1208,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>